--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H2">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I2">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J2">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N2">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O2">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P2">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q2">
-        <v>24.80993001566555</v>
+        <v>17.28886371185244</v>
       </c>
       <c r="R2">
-        <v>223.28937014099</v>
+        <v>155.599773406672</v>
       </c>
       <c r="S2">
-        <v>0.01462513102425577</v>
+        <v>0.006748348919162444</v>
       </c>
       <c r="T2">
-        <v>0.01591929156842095</v>
+        <v>0.006949703396089731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H3">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I3">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J3">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>155.582533</v>
       </c>
       <c r="O3">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P3">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q3">
-        <v>38.20476036873945</v>
+        <v>24.26489386395356</v>
       </c>
       <c r="R3">
-        <v>343.842843318655</v>
+        <v>218.384044775582</v>
       </c>
       <c r="S3">
-        <v>0.02252120928153773</v>
+        <v>0.009471297420671113</v>
       </c>
       <c r="T3">
-        <v>0.02451408445036283</v>
+        <v>0.009753898122088116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H4">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I4">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J4">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N4">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O4">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P4">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q4">
-        <v>31.26245231887</v>
+        <v>30.28984908354377</v>
       </c>
       <c r="R4">
-        <v>281.36207086983</v>
+        <v>272.608641751894</v>
       </c>
       <c r="S4">
-        <v>0.01842880898955881</v>
+        <v>0.01182301357285815</v>
       </c>
       <c r="T4">
-        <v>0.02005955249747602</v>
+        <v>0.01217578381965246</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H5">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I5">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J5">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N5">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O5">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P5">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q5">
-        <v>19.24213972827667</v>
+        <v>5.981512206271001</v>
       </c>
       <c r="R5">
-        <v>115.45283836966</v>
+        <v>35.889073237626</v>
       </c>
       <c r="S5">
-        <v>0.01134299107395262</v>
+        <v>0.002334759074101167</v>
       </c>
       <c r="T5">
-        <v>0.008231145957588067</v>
+        <v>0.001602948440742059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H6">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I6">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J6">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N6">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O6">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P6">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q6">
-        <v>40.41634779554721</v>
+        <v>21.52954839722556</v>
       </c>
       <c r="R6">
-        <v>363.747130159925</v>
+        <v>193.76593557503</v>
       </c>
       <c r="S6">
-        <v>0.02382491130198829</v>
+        <v>0.008403612121534008</v>
       </c>
       <c r="T6">
-        <v>0.02593314952044469</v>
+        <v>0.008654355665369809</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.45002</v>
       </c>
       <c r="I7">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J7">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N7">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O7">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P7">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q7">
-        <v>5.051940220697777</v>
+        <v>5.542914740817777</v>
       </c>
       <c r="R7">
-        <v>45.46746198627999</v>
+        <v>49.88623266735999</v>
       </c>
       <c r="S7">
-        <v>0.002978053046008585</v>
+        <v>0.002163561661635619</v>
       </c>
       <c r="T7">
-        <v>0.003241577437289815</v>
+        <v>0.002228117130224614</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.45002</v>
       </c>
       <c r="I8">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J8">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>155.582533</v>
       </c>
       <c r="O8">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P8">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q8">
         <v>7.779472388962223</v>
@@ -948,10 +948,10 @@
         <v>70.01525150066</v>
       </c>
       <c r="S8">
-        <v>0.004585897780296516</v>
+        <v>0.003036555493911187</v>
       </c>
       <c r="T8">
-        <v>0.004991698450183946</v>
+        <v>0.003127158995665666</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.45002</v>
       </c>
       <c r="I9">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J9">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N9">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O9">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P9">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q9">
-        <v>6.365839813639999</v>
+        <v>9.711109635691107</v>
       </c>
       <c r="R9">
-        <v>57.29255832275999</v>
+        <v>87.39998672121999</v>
       </c>
       <c r="S9">
-        <v>0.003752579765244106</v>
+        <v>0.003790529979651412</v>
       </c>
       <c r="T9">
-        <v>0.004084641109717338</v>
+        <v>0.003903630263953939</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.45002</v>
       </c>
       <c r="I10">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J10">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N10">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O10">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P10">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q10">
-        <v>3.918194834253332</v>
+        <v>1.91770915273</v>
       </c>
       <c r="R10">
-        <v>23.50916900552</v>
+        <v>11.50625491638</v>
       </c>
       <c r="S10">
-        <v>0.002309724888112703</v>
+        <v>0.0007485379434867903</v>
       </c>
       <c r="T10">
-        <v>0.001676073140847897</v>
+        <v>0.0005139150084727015</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.45002</v>
       </c>
       <c r="I11">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J11">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N11">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O11">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P11">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q11">
-        <v>8.229808503011109</v>
+        <v>6.902504014322221</v>
       </c>
       <c r="R11">
-        <v>74.06827652709998</v>
+        <v>62.1225361289</v>
       </c>
       <c r="S11">
-        <v>0.004851365061693942</v>
+        <v>0.002694249100513897</v>
       </c>
       <c r="T11">
-        <v>0.005280656617289102</v>
+        <v>0.002774639004006487</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H12">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I12">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J12">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N12">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O12">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P12">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q12">
-        <v>108.048924352392</v>
+        <v>220.7233804065538</v>
       </c>
       <c r="R12">
-        <v>972.4403191715278</v>
+        <v>1986.510423658984</v>
       </c>
       <c r="S12">
-        <v>0.06369343543838454</v>
+        <v>0.08615478786956389</v>
       </c>
       <c r="T12">
-        <v>0.06932959219691071</v>
+        <v>0.08872543921762882</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H13">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I13">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J13">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>155.582533</v>
       </c>
       <c r="O13">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P13">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q13">
-        <v>166.384317101124</v>
+        <v>309.7849279236533</v>
       </c>
       <c r="R13">
-        <v>1497.458853910116</v>
+        <v>2788.064351312879</v>
       </c>
       <c r="S13">
-        <v>0.09808139065482084</v>
+        <v>0.120918113438145</v>
       </c>
       <c r="T13">
-        <v>0.1067604968926933</v>
+        <v>0.1245260186863807</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H14">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I14">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J14">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N14">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O14">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P14">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q14">
-        <v>136.150095689064</v>
+        <v>386.7042966589381</v>
       </c>
       <c r="R14">
-        <v>1225.350861201576</v>
+        <v>3480.338669930443</v>
       </c>
       <c r="S14">
-        <v>0.08025871040991346</v>
+        <v>0.1509419916709036</v>
       </c>
       <c r="T14">
-        <v>0.08736070875548896</v>
+        <v>0.1554457371267668</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H15">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I15">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J15">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N15">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O15">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P15">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q15">
-        <v>83.80082082319198</v>
+        <v>76.36474068599952</v>
       </c>
       <c r="R15">
-        <v>502.8049249391519</v>
+        <v>458.1884441159971</v>
       </c>
       <c r="S15">
-        <v>0.04939949381983317</v>
+        <v>0.02980739069145388</v>
       </c>
       <c r="T15">
-        <v>0.03584719772862575</v>
+        <v>0.02046451428820318</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H16">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I16">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J16">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N16">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O16">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P16">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q16">
-        <v>176.0159300249399</v>
+        <v>274.8633328403373</v>
       </c>
       <c r="R16">
-        <v>1584.143370224459</v>
+        <v>2473.769995563036</v>
       </c>
       <c r="S16">
-        <v>0.1037591011883362</v>
+        <v>0.1072871939998498</v>
       </c>
       <c r="T16">
-        <v>0.1129406213151154</v>
+        <v>0.1104883854449889</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H17">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I17">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J17">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N17">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O17">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P17">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q17">
-        <v>33.917168692643</v>
+        <v>12.15394479195866</v>
       </c>
       <c r="R17">
-        <v>203.503012155858</v>
+        <v>72.92366875175199</v>
       </c>
       <c r="S17">
-        <v>0.01999372976015962</v>
+        <v>0.004744039953542222</v>
       </c>
       <c r="T17">
-        <v>0.01450863417060761</v>
+        <v>0.003257060452490623</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H18">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I18">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J18">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>155.582533</v>
       </c>
       <c r="O18">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P18">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q18">
-        <v>52.22897853683352</v>
+        <v>17.05804298769784</v>
       </c>
       <c r="R18">
-        <v>313.3738712210011</v>
+        <v>102.348257926187</v>
       </c>
       <c r="S18">
-        <v>0.03078830346888995</v>
+        <v>0.006658252842848234</v>
       </c>
       <c r="T18">
-        <v>0.02234181601543299</v>
+        <v>0.004571279379915794</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H19">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I19">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J19">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N19">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O19">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P19">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q19">
-        <v>42.738285371031</v>
+        <v>21.29354245911316</v>
       </c>
       <c r="R19">
-        <v>256.429712226186</v>
+        <v>127.761254754679</v>
       </c>
       <c r="S19">
-        <v>0.02519366329968241</v>
+        <v>0.008311492104630591</v>
       </c>
       <c r="T19">
-        <v>0.01828201384220554</v>
+        <v>0.005706324672701646</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H20">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I20">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J20">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N20">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O20">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P20">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q20">
-        <v>26.305551799593</v>
+        <v>4.20495935066025</v>
       </c>
       <c r="R20">
-        <v>105.222207198372</v>
+        <v>16.819837402641</v>
       </c>
       <c r="S20">
-        <v>0.01550678061129042</v>
+        <v>0.001641318559859806</v>
       </c>
       <c r="T20">
-        <v>0.007501758793112333</v>
+        <v>0.0007512406898775019</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H21">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I21">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J21">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N21">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O21">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P21">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q21">
-        <v>55.2523963290725</v>
+        <v>15.13511512247583</v>
       </c>
       <c r="R21">
-        <v>331.514377974435</v>
+        <v>90.810690734855</v>
       </c>
       <c r="S21">
-        <v>0.0325705689297212</v>
+        <v>0.005907677883315057</v>
       </c>
       <c r="T21">
-        <v>0.02363513336423683</v>
+        <v>0.004055965840977342</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H22">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I22">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J22">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N22">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O22">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P22">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q22">
-        <v>101.5806289878678</v>
+        <v>190.098117501848</v>
       </c>
       <c r="R22">
-        <v>914.2256608908099</v>
+        <v>1710.883057516632</v>
       </c>
       <c r="S22">
-        <v>0.05988045945860466</v>
+        <v>0.07420085247701673</v>
       </c>
       <c r="T22">
-        <v>0.06517921048307641</v>
+        <v>0.07641482718654063</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H23">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I23">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J23">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>155.582533</v>
       </c>
       <c r="O23">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P23">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q23">
-        <v>156.4238023298272</v>
+        <v>266.802418122913</v>
       </c>
       <c r="R23">
-        <v>1407.814220968445</v>
+        <v>2401.221763106217</v>
       </c>
       <c r="S23">
-        <v>0.09220979676047014</v>
+        <v>0.1041407833376212</v>
       </c>
       <c r="T23">
-        <v>0.1003693326001816</v>
+        <v>0.1072480934673925</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H24">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I24">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J24">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N24">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O24">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P24">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q24">
-        <v>127.99953761453</v>
+        <v>333.0492614300209</v>
       </c>
       <c r="R24">
-        <v>1151.99583853077</v>
+        <v>2997.443352870189</v>
       </c>
       <c r="S24">
-        <v>0.07545406244494147</v>
+        <v>0.12999886290146</v>
       </c>
       <c r="T24">
-        <v>0.08213090317554873</v>
+        <v>0.1338777158407823</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H25">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I25">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J25">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N25">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O25">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P25">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q25">
-        <v>78.78412617192332</v>
+        <v>65.76916963298851</v>
       </c>
       <c r="R25">
-        <v>472.7047570315399</v>
+        <v>394.615017797931</v>
       </c>
       <c r="S25">
-        <v>0.04644221757853947</v>
+        <v>0.02567162956480002</v>
       </c>
       <c r="T25">
-        <v>0.03370122298349058</v>
+        <v>0.01762507277032254</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H26">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I26">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J26">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N26">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O26">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P26">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q26">
-        <v>165.4788235142861</v>
+        <v>236.726177566645</v>
       </c>
       <c r="R26">
-        <v>1489.309411628575</v>
+        <v>2130.535598099805</v>
       </c>
       <c r="S26">
-        <v>0.09754761396376344</v>
+        <v>0.09240114741746425</v>
       </c>
       <c r="T26">
-        <v>0.1061794869336525</v>
+        <v>0.0951581750887652</v>
       </c>
     </row>
   </sheetData>
